--- a/Documentation/Final Report/Image and media content/FYP - List of requirements with priority.xlsx
+++ b/Documentation/Final Report/Image and media content/FYP - List of requirements with priority.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shouyi Cui\Documents\University of Westminster\2019-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shouyi Cui\Dropbox\FYP management\Official Work [On GitHub]\Contactless-Voucher\Documentation\Final Report\Image and media content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C8BAA3-2D66-4240-BD19-04899759FB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB8BBFC-7F3C-4EB3-AC62-76DDEE451E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{F3108A73-4E7E-41DB-BA0F-03CFD0B1EC69}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -44,15 +44,182 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>User shall be able to register in the Web App</t>
+  </si>
+  <si>
+    <t>User shall be able to login in the Web App</t>
+  </si>
+  <si>
+    <t>User shall be able to create a loyalty card</t>
+  </si>
+  <si>
+    <t>User shall be able to view the loyalty card</t>
+  </si>
+  <si>
+    <t>User shall be able to logout from the Web App</t>
+  </si>
+  <si>
+    <t>User shall be able to see About page</t>
+  </si>
+  <si>
+    <t>User shall be able to see Contact page</t>
+  </si>
+  <si>
+    <t>User shall be able to Manage mobile phone number</t>
+  </si>
+  <si>
+    <t>User shall be able to collect a stamp or point for the loyalty card</t>
+  </si>
+  <si>
+    <t>User shall be able to scan a NFC tag</t>
+  </si>
+  <si>
+    <t>User shall be able to collect all stamps and receive a voucher by SMS</t>
+  </si>
+  <si>
+    <t>User shall be able to Manage password details</t>
+  </si>
+  <si>
+    <t>SHOULD have</t>
+  </si>
+  <si>
+    <t>MUST have</t>
+  </si>
+  <si>
+    <t>COULD have</t>
+  </si>
+  <si>
+    <t>NFR1</t>
+  </si>
+  <si>
+    <t>NFR2</t>
+  </si>
+  <si>
+    <t>NFR3</t>
+  </si>
+  <si>
+    <t>NFR4</t>
+  </si>
+  <si>
+    <t>NFR5</t>
+  </si>
+  <si>
+    <t>NFR6</t>
+  </si>
+  <si>
+    <t>NFR7</t>
+  </si>
+  <si>
+    <t>NFR8</t>
+  </si>
+  <si>
+    <t>NFR9</t>
+  </si>
+  <si>
+    <t>User shall be able to register by email address</t>
+  </si>
+  <si>
+    <t>WON'T have</t>
+  </si>
+  <si>
+    <t>User shall be able to have multiple cards</t>
+  </si>
+  <si>
+    <t>User shall be able to collect stamps by QR code</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>Web App shall have data integrity meaning that the data is stored persistently</t>
+  </si>
+  <si>
+    <t>Web App shall render well on mobile devices</t>
+  </si>
+  <si>
+    <t>Web App shall store different details associated to different user</t>
+  </si>
+  <si>
+    <t>Web App shall be able to show the user a collection of the stamp in the UI</t>
+  </si>
+  <si>
+    <t>Web App shall be visually appealing to the customer</t>
+  </si>
+  <si>
+    <t>Web App shall be accessible from any smartphone</t>
+  </si>
+  <si>
+    <t>Web App shall be working with Android NFC</t>
+  </si>
+  <si>
+    <t>User shall be able see the home page without registering and redirected to it if not logged in</t>
+  </si>
+  <si>
+    <t>Web App shall have different login depending on customer or cashier/retailer</t>
+  </si>
+  <si>
+    <t>Web App shall have different content depending on customer or cashier/retailer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,13 +247,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,14 +277,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3A4FAA9-6F81-47F9-8CFF-76EF2EC252C8}" name="Tabella1" displayName="Tabella1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{54F7C450-5FF0-444A-B2D2-A51ECA1D1930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3A4FAA9-6F81-47F9-8CFF-76EF2EC252C8}" name="Tabella1" displayName="Tabella1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{54F7C450-5FF0-444A-B2D2-A51ECA1D1930}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{80F3ACC6-B4D6-4C26-8F78-E6DA89AB74F1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{F88344B8-9CE2-4E33-AF02-81F15F5C1A75}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{2892C6EB-BB56-457D-8103-86B1360F283D}" name="Priority"/>
+    <tableColumn id="3" xr3:uid="{2892C6EB-BB56-457D-8103-86B1360F283D}" name="Priority" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D48AFB6-42B4-487D-A884-9AE3C3AF3084}" name="Tabella2" displayName="Tabella2" ref="A19:C28" totalsRowShown="0">
+  <autoFilter ref="A19:C28" xr:uid="{3A9FA6C3-514F-4664-88BC-83136025C315}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BE9B8702-348C-408D-91C6-9BF33F49B0C8}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{4EDCDA5B-7F4C-43BE-BF6A-BE8C8AA278DB}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{CF37A609-745F-482C-8379-D96B40BBB73D}" name="Priority" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -408,17 +597,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B3B82-AED9-4514-AACA-41DE7CA4894D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="75.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -434,19 +623,305 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/Final Report/Image and media content/FYP - List of requirements with priority.xlsx
+++ b/Documentation/Final Report/Image and media content/FYP - List of requirements with priority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shouyi Cui\Dropbox\FYP management\Official Work [On GitHub]\Contactless-Voucher\Documentation\Final Report\Image and media content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB8BBFC-7F3C-4EB3-AC62-76DDEE451E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50B4F0A-49DC-439F-9B27-3872C913FD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{F3108A73-4E7E-41DB-BA0F-03CFD0B1EC69}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -197,13 +197,19 @@
     <t>Web App shall be working with Android NFC</t>
   </si>
   <si>
-    <t>User shall be able see the home page without registering and redirected to it if not logged in</t>
-  </si>
-  <si>
     <t>Web App shall have different login depending on customer or cashier/retailer</t>
   </si>
   <si>
     <t>Web App shall have different content depending on customer or cashier/retailer</t>
+  </si>
+  <si>
+    <t>User should be redirected to homepage if not logged in</t>
+  </si>
+  <si>
+    <t>Web App shall display the home page for users not registered</t>
+  </si>
+  <si>
+    <t>NFR10</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,15 +249,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -289,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D48AFB6-42B4-487D-A884-9AE3C3AF3084}" name="Tabella2" displayName="Tabella2" ref="A19:C28" totalsRowShown="0">
-  <autoFilter ref="A19:C28" xr:uid="{3A9FA6C3-514F-4664-88BC-83136025C315}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D48AFB6-42B4-487D-A884-9AE3C3AF3084}" name="Tabella2" displayName="Tabella2" ref="A19:C29" totalsRowShown="0">
+  <autoFilter ref="A19:C29" xr:uid="{3A9FA6C3-514F-4664-88BC-83136025C315}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BE9B8702-348C-408D-91C6-9BF33F49B0C8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{4EDCDA5B-7F4C-43BE-BF6A-BE8C8AA278DB}" name="Description"/>
@@ -599,14 +617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B3B82-AED9-4514-AACA-41DE7CA4894D}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -637,7 +655,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -648,7 +666,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -815,8 +833,8 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -827,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
@@ -838,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
@@ -849,7 +867,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -860,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,10 +889,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,9 +900,9 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -893,10 +911,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,14 +922,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
